--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H2">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N2">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P2">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q2">
-        <v>26418.53651665296</v>
+        <v>27488.58739513817</v>
       </c>
       <c r="R2">
-        <v>26418.53651665296</v>
+        <v>247397.2865562435</v>
       </c>
       <c r="S2">
-        <v>0.120986115310666</v>
+        <v>0.1203346775329818</v>
       </c>
       <c r="T2">
-        <v>0.120986115310666</v>
+        <v>0.1203346775329818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H3">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N3">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P3">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q3">
-        <v>28120.98832052759</v>
+        <v>28973.98938691135</v>
       </c>
       <c r="R3">
-        <v>28120.98832052759</v>
+        <v>260765.9044822021</v>
       </c>
       <c r="S3">
-        <v>0.1287826497676217</v>
+        <v>0.1268372077327872</v>
       </c>
       <c r="T3">
-        <v>0.1287826497676217</v>
+        <v>0.1268372077327872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H4">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I4">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J4">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N4">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P4">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q4">
-        <v>18133.11563748432</v>
+        <v>18719.77877832483</v>
       </c>
       <c r="R4">
-        <v>18133.11563748432</v>
+        <v>168478.0090049235</v>
       </c>
       <c r="S4">
-        <v>0.08304226913082104</v>
+        <v>0.08194813761790076</v>
       </c>
       <c r="T4">
-        <v>0.08304226913082104</v>
+        <v>0.08194813761790079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H5">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I5">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J5">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N5">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P5">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q5">
-        <v>14060.02744604787</v>
+        <v>14600.95968054952</v>
       </c>
       <c r="R5">
-        <v>14060.02744604787</v>
+        <v>131408.6371249456</v>
       </c>
       <c r="S5">
-        <v>0.06438918752317738</v>
+        <v>0.06391749963629459</v>
       </c>
       <c r="T5">
-        <v>0.06438918752317738</v>
+        <v>0.0639174996362946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H6">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I6">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J6">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N6">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P6">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q6">
-        <v>9295.057248340159</v>
+        <v>10029.89038119581</v>
       </c>
       <c r="R6">
-        <v>9295.057248340159</v>
+        <v>90269.01343076231</v>
       </c>
       <c r="S6">
-        <v>0.04256756869776069</v>
+        <v>0.04390708068635871</v>
       </c>
       <c r="T6">
-        <v>0.04256756869776069</v>
+        <v>0.04390708068635871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J7">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N7">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P7">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q7">
-        <v>32925.36655558655</v>
+        <v>34508.04474400542</v>
       </c>
       <c r="R7">
-        <v>32925.36655558655</v>
+        <v>310572.4026960487</v>
       </c>
       <c r="S7">
-        <v>0.1507847413208952</v>
+        <v>0.1510632167769394</v>
       </c>
       <c r="T7">
-        <v>0.1507847413208952</v>
+        <v>0.1510632167769394</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J8">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N8">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P8">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q8">
-        <v>35047.1286619189</v>
+        <v>36372.75745761724</v>
       </c>
       <c r="R8">
-        <v>35047.1286619189</v>
+        <v>327354.8171185551</v>
       </c>
       <c r="S8">
-        <v>0.1605015458341472</v>
+        <v>0.1592262263873866</v>
       </c>
       <c r="T8">
-        <v>0.1605015458341472</v>
+        <v>0.1592262263873866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J9">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N9">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P9">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q9">
-        <v>22599.26392147669</v>
+        <v>23500.04219549563</v>
       </c>
       <c r="R9">
-        <v>22599.26392147669</v>
+        <v>211500.3797594607</v>
       </c>
       <c r="S9">
-        <v>0.103495405546649</v>
+        <v>0.1028743295883801</v>
       </c>
       <c r="T9">
-        <v>0.103495405546649</v>
+        <v>0.1028743295883801</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J10">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N10">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P10">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q10">
-        <v>17522.98266601271</v>
+        <v>18329.44569756016</v>
       </c>
       <c r="R10">
-        <v>17522.98266601271</v>
+        <v>164965.0112780415</v>
       </c>
       <c r="S10">
-        <v>0.08024810912900672</v>
+        <v>0.08023940647325931</v>
       </c>
       <c r="T10">
-        <v>0.08024810912900672</v>
+        <v>0.08023940647325932</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J11">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.0360057366055</v>
+        <v>59.73436333333333</v>
       </c>
       <c r="N11">
-        <v>57.0360057366055</v>
+        <v>179.20309</v>
       </c>
       <c r="O11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="P11">
-        <v>0.09679555807426021</v>
+        <v>0.100486607144627</v>
       </c>
       <c r="Q11">
-        <v>11584.410319771</v>
+        <v>12591.11285263755</v>
       </c>
       <c r="R11">
-        <v>11584.410319771</v>
+        <v>113320.0156737379</v>
       </c>
       <c r="S11">
-        <v>0.05305187143392338</v>
+        <v>0.05511914756199885</v>
       </c>
       <c r="T11">
-        <v>0.05305187143392338</v>
+        <v>0.05511914756199886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H12">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I12">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J12">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>162.108501331244</v>
+        <v>163.7119853333333</v>
       </c>
       <c r="N12">
-        <v>162.108501331244</v>
+        <v>491.135956</v>
       </c>
       <c r="O12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="P12">
-        <v>0.2751136348397736</v>
+        <v>0.2754003062401033</v>
       </c>
       <c r="Q12">
-        <v>729.9292810085445</v>
+        <v>7.757165001049334</v>
       </c>
       <c r="R12">
-        <v>729.9292810085445</v>
+        <v>69.814485009444</v>
       </c>
       <c r="S12">
-        <v>0.00334277820821241</v>
+        <v>3.395794536668341E-05</v>
       </c>
       <c r="T12">
-        <v>0.00334277820821241</v>
+        <v>3.395794536668341E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H13">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I13">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J13">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>172.555026646559</v>
+        <v>172.558497</v>
       </c>
       <c r="N13">
-        <v>172.555026646559</v>
+        <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="P13">
-        <v>0.2928423876648305</v>
+        <v>0.290282124557779</v>
       </c>
       <c r="Q13">
-        <v>776.9670652692506</v>
+        <v>8.176339263351</v>
       </c>
       <c r="R13">
-        <v>776.9670652692506</v>
+        <v>73.587053370159</v>
       </c>
       <c r="S13">
-        <v>0.003558192063061513</v>
+        <v>3.57929323363346E-05</v>
       </c>
       <c r="T13">
-        <v>0.003558192063061513</v>
+        <v>3.579293233633461E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H14">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I14">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J14">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.267791030203</v>
+        <v>111.4881643333333</v>
       </c>
       <c r="N14">
-        <v>111.267791030203</v>
+        <v>334.464493</v>
       </c>
       <c r="O14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="P14">
-        <v>0.188832085791491</v>
+        <v>0.1875481171218523</v>
       </c>
       <c r="Q14">
-        <v>501.0077697290486</v>
+        <v>5.282643690606333</v>
       </c>
       <c r="R14">
-        <v>501.0077697290486</v>
+        <v>47.543793215457</v>
       </c>
       <c r="S14">
-        <v>0.002294411114021003</v>
+        <v>2.312542350368961E-05</v>
       </c>
       <c r="T14">
-        <v>0.002294411114021003</v>
+        <v>2.312542350368962E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H15">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I15">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J15">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.2746494878038</v>
+        <v>86.95798233333333</v>
       </c>
       <c r="N15">
-        <v>86.2746494878038</v>
+        <v>260.873947</v>
       </c>
       <c r="O15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="P15">
-        <v>0.1464163336296447</v>
+        <v>0.1462828449356383</v>
       </c>
       <c r="Q15">
-        <v>388.4706375837641</v>
+        <v>4.120330076900333</v>
       </c>
       <c r="R15">
-        <v>388.4706375837641</v>
+        <v>37.082970692103</v>
       </c>
       <c r="S15">
-        <v>0.001779036977460541</v>
+        <v>1.803725247885753E-05</v>
       </c>
       <c r="T15">
-        <v>0.001779036977460541</v>
+        <v>1.803725247885754E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.047383</v>
+      </c>
+      <c r="H16">
+        <v>0.142149</v>
+      </c>
+      <c r="I16">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J16">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N16">
+        <v>179.20309</v>
+      </c>
+      <c r="O16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P16">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q16">
+        <v>2.830393337823333</v>
+      </c>
+      <c r="R16">
+        <v>25.47354004041</v>
+      </c>
+      <c r="S16">
+        <v>1.239039550132398E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.239039550132398E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.384626</v>
+      </c>
+      <c r="I17">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J17">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N17">
+        <v>491.135956</v>
+      </c>
+      <c r="O17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P17">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q17">
+        <v>20.98929535693955</v>
+      </c>
+      <c r="R17">
+        <v>188.903658212456</v>
+      </c>
+      <c r="S17">
+        <v>9.188322601359117E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.18832260135912E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.384626</v>
+      </c>
+      <c r="I18">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J18">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.558497</v>
+      </c>
+      <c r="N18">
+        <v>517.675491</v>
+      </c>
+      <c r="O18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P18">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q18">
+        <v>22.123494822374</v>
+      </c>
+      <c r="R18">
+        <v>199.111453401366</v>
+      </c>
+      <c r="S18">
+        <v>9.684832389109338E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.684832389109341E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.384626</v>
+      </c>
+      <c r="I19">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J19">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N19">
+        <v>334.464493</v>
+      </c>
+      <c r="O19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P19">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q19">
+        <v>14.29374889829089</v>
+      </c>
+      <c r="R19">
+        <v>128.643740084618</v>
+      </c>
+      <c r="S19">
+        <v>6.25726465928717E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.257264659287173E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.384626</v>
+      </c>
+      <c r="I20">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J20">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N20">
+        <v>260.873947</v>
+      </c>
+      <c r="O20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P20">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q20">
+        <v>11.14876697098022</v>
+      </c>
+      <c r="R20">
+        <v>100.338902738822</v>
+      </c>
+      <c r="S20">
+        <v>4.88051007881382E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.880510078813822E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.384626</v>
+      </c>
+      <c r="I21">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J21">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N21">
+        <v>179.20309</v>
+      </c>
+      <c r="O21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P21">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q21">
+        <v>7.658463077148888</v>
+      </c>
+      <c r="R21">
+        <v>68.92616769433999</v>
+      </c>
+      <c r="S21">
+        <v>3.352586553610813E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.352586553610815E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H22">
+        <v>16.227444</v>
+      </c>
+      <c r="I22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>163.7119853333333</v>
+      </c>
+      <c r="N22">
+        <v>491.135956</v>
+      </c>
+      <c r="O22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="P22">
+        <v>0.2754003062401033</v>
+      </c>
+      <c r="Q22">
+        <v>885.5423580418295</v>
+      </c>
+      <c r="R22">
+        <v>7969.881222376464</v>
+      </c>
+      <c r="S22">
+        <v>0.003876570758801782</v>
+      </c>
+      <c r="T22">
+        <v>0.003876570758801783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H23">
+        <v>16.227444</v>
+      </c>
+      <c r="I23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="P23">
+        <v>0.290282124557779</v>
+      </c>
+      <c r="Q23">
+        <v>933.3944489305561</v>
+      </c>
+      <c r="R23">
+        <v>8400.550040375005</v>
+      </c>
+      <c r="S23">
+        <v>0.004086049181377702</v>
+      </c>
+      <c r="T23">
+        <v>0.004086049181377703</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="H16">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="I16">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="J16">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="N16">
-        <v>57.0360057366055</v>
-      </c>
-      <c r="O16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="P16">
-        <v>0.09679555807426021</v>
-      </c>
-      <c r="Q16">
-        <v>256.8171953786095</v>
-      </c>
-      <c r="R16">
-        <v>256.8171953786095</v>
-      </c>
-      <c r="S16">
-        <v>0.001176117942576132</v>
-      </c>
-      <c r="T16">
-        <v>0.001176117942576132</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H24">
+        <v>16.227444</v>
+      </c>
+      <c r="I24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>111.4881643333333</v>
+      </c>
+      <c r="N24">
+        <v>334.464493</v>
+      </c>
+      <c r="O24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="P24">
+        <v>0.1875481171218523</v>
+      </c>
+      <c r="Q24">
+        <v>603.0559811273214</v>
+      </c>
+      <c r="R24">
+        <v>5427.503830145893</v>
+      </c>
+      <c r="S24">
+        <v>0.002639951845474868</v>
+      </c>
+      <c r="T24">
+        <v>0.002639951845474869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H25">
+        <v>16.227444</v>
+      </c>
+      <c r="I25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>86.95798233333333</v>
+      </c>
+      <c r="N25">
+        <v>260.873947</v>
+      </c>
+      <c r="O25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="P25">
+        <v>0.1462828449356383</v>
+      </c>
+      <c r="Q25">
+        <v>470.3685962223854</v>
+      </c>
+      <c r="R25">
+        <v>4233.317366001468</v>
+      </c>
+      <c r="S25">
+        <v>0.002059096472817409</v>
+      </c>
+      <c r="T25">
+        <v>0.00205909647281741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H26">
+        <v>16.227444</v>
+      </c>
+      <c r="I26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>59.73436333333333</v>
+      </c>
+      <c r="N26">
+        <v>179.20309</v>
+      </c>
+      <c r="O26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="P26">
+        <v>0.100486607144627</v>
+      </c>
+      <c r="Q26">
+        <v>323.1120119557734</v>
+      </c>
+      <c r="R26">
+        <v>2908.00810760196</v>
+      </c>
+      <c r="S26">
+        <v>0.001414462635231952</v>
+      </c>
+      <c r="T26">
+        <v>0.001414462635231953</v>
       </c>
     </row>
   </sheetData>
